--- a/dataset/combined_analysis.xlsx
+++ b/dataset/combined_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gmuedu-my.sharepoint.com/personal/sjalil_gmu_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A3F207-90E0-4C60-B7E3-FCB83C85F9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADEBB11F-349C-3342-AB08-E4B2240DB433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All RQ" sheetId="1" r:id="rId1"/>
@@ -38,32 +38,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
-  <si>
-    <t>RQ1: How does shared &amp; separate context when using ChatGPT compare in terms of answer and explanation correctness?</t>
-  </si>
-  <si>
-    <t>Finding: For shared, 37.5% of the time chatgpt answers the question correctly and 44.1% of the time the explanation is correct. (Independently)
-For separate,  33.3% of the time chatgpt answers the question correctly and 45.2% of the time the explanation is correct. (Independently)
-Shared context is better than separate context and can give a correct answer 37.5% of the time and a correct explanation 44.1% of the time.”</t>
-  </si>
-  <si>
-    <t>RQ2: How often will chatGPT give answers and explanations that are inconsistent with one another?</t>
-  </si>
-  <si>
-    <t>15.1% of time chatgpt will give you a response  where (1) the answers are at least partially correct, but the explanations are wrong, or (2) the explanation are at least partially correct but the answers are wrong.</t>
-  </si>
-  <si>
-    <t>RQ3: How often are the answers and explanations inconsistent over multiple runs?</t>
-  </si>
-  <si>
-    <t>ChatGPT’s explanations and answers are nondeterministic. Up to 12.9% of the 
-questions can get answers that are more correct (e.g., from answer incorrect
-to answer correct) and up to 25.8% of the questions can get explanations 
-that are more correct depending on the run.</t>
-  </si>
-  <si>
-    <t>RQ4: How confident is chatGPT in its responses?</t>
-  </si>
   <si>
     <t>ChatGPT has four varying levels of confidence in its responses. When ChatGPT is "highly confident" in its response, we find that its answers or explanations are correct about half the time. On the other hand, when ChatGPT is "confident" in its response, we find that its answers or explanation are twice as likely to be correct than incorrect.</t>
   </si>
@@ -244,6 +218,32 @@
   <si>
     <t>Reliable</t>
   </si>
+  <si>
+    <t>Finding: For shared, 37.5% of the time chatgpt answers the question correctly and 45.2% of the time the explanation is correct. (Independently)
+For separate,  33.3% of the time chatgpt answers the question correctly and 45.2% of the time the explanation is correct. (Independently)
+Shared context is better than separate context and can give a correct answer 37.5% of the time and a correct explanation 45.2% of the time.”</t>
+  </si>
+  <si>
+    <t>Only 1.9% of time chatgpt will give you a response  where (1) the answers are at least partially correct, but the explanations are wrong, or (2) the explanation are at least partially correct but the answers are wrong.</t>
+  </si>
+  <si>
+    <t>RQ2: How often will ChatGPT give correct answers but incorrect explanations, and the other way around?</t>
+  </si>
+  <si>
+    <t>RQ1: How does shared &amp; separate context affect ChatGPT’s answer and explanation correctness?</t>
+  </si>
+  <si>
+    <t>RQ3:How often will ChatGPT’s inconsistent responses affect the scores of answers and explanations?</t>
+  </si>
+  <si>
+    <t>RQ4: How confident is ChatGPT in its correct and
+incorrect responses?</t>
+  </si>
+  <si>
+    <t>answers are inconsistent 16.1% and 32.5% of the time in shared and separate context queries.
+For explanation, inconsistency rates are 19.4% and 32.5% in the shared and separate contexts
+shared context queries produce fewer inconsistencies in terms of both answers and explanations. Overall, ChatGPT’s explanations and answers are quite nondeterministic across multiple iterations.</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -386,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -434,10 +434,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,13 +617,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>13.666666666666666</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11</c:v>
@@ -876,13 +877,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>4</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8</c:v>
@@ -1224,25 +1225,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,22 +1358,22 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>13.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,19 +1485,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1692,42 +1693,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Distribution of explnation verdicts </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1735,9 +1701,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.3866879563906065E-2"/>
-          <c:y val="0.20864538963678469"/>
+          <c:y val="9.5091170076159026E-2"/>
           <c:w val="0.91226624087218788"/>
-          <c:h val="0.63161697494585378"/>
+          <c:h val="0.74517119450647928"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1877,13 +1843,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.44086021505376344</c:v>
+                  <c:v>0.45161290322580644</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.43010752688172044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12903225806451613</c:v>
+                  <c:v>0.11827956989247311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2196,6 +2162,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2218,42 +2189,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Distribution of answer verdicts</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2261,9 +2197,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.3939412048520185E-2"/>
-          <c:y val="0.19934484705381569"/>
+          <c:y val="0.12072837396897715"/>
           <c:w val="0.9121211759029596"/>
-          <c:h val="0.62373276172430769"/>
+          <c:h val="0.70234906760868732"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2406,10 +2342,10 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,10 +2492,10 @@
                   <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36666666666666664</c:v>
+                  <c:v>0.35833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>8.3333333333333343E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2731,6 +2667,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2753,79 +2694,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Confidence Graph</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> (Explanations)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2941,10 +2810,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
@@ -3196,10 +3065,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -3392,12 +3261,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3434,79 +3298,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Confidence</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Graph (Answers)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3622,7 +3414,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -3877,7 +3669,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -4070,12 +3862,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5297,15 +5084,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1322553</xdr:colOff>
+      <xdr:colOff>1156139</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>171232</xdr:rowOff>
+      <xdr:rowOff>153715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>630621</xdr:colOff>
+      <xdr:colOff>402933</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>175174</xdr:rowOff>
+      <xdr:rowOff>171163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5408,6 +5195,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5710,69 +5501,69 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="121" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="19"/>
+    <col min="3" max="3" width="10.83203125" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="141">
+    <row r="1" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
     </row>
-    <row r="3" spans="1:3" ht="66">
+    <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
     </row>
-    <row r="5" spans="1:3" ht="81">
+    <row r="5" spans="1:3" ht="101" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
     </row>
-    <row r="7" spans="1:3" ht="87.95">
+    <row r="7" spans="1:3" ht="88" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
     </row>
   </sheetData>
@@ -5782,51 +5573,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="16.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
-    <col min="9" max="10" width="22.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="22.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="22.875" style="1"/>
+    <col min="9" max="10" width="22.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="22.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="22.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <f>4*6</f>
@@ -5850,9 +5641,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
@@ -5874,55 +5665,55 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="K7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>14</v>
       </c>
       <c r="E8" s="17">
         <f>AVERAGE(B8:D8)</f>
-        <v>13.666666666666666</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
         <v>11</v>
@@ -5939,16 +5730,16 @@
       </c>
       <c r="J8" s="17">
         <f>AVERAGE(B8:D8,F8:H8)</f>
-        <v>13.833333333333334</v>
+        <v>14</v>
       </c>
       <c r="K8" s="12">
         <f>J8/$G$2</f>
-        <v>0.44623655913978494</v>
+        <v>0.45161290322580644</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>13</v>
@@ -5985,22 +5776,22 @@
         <v>0.40322580645161288</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
       </c>
       <c r="E10" s="17">
         <f>AVERAGE(B10:D10)</f>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
@@ -6017,90 +5808,90 @@
       </c>
       <c r="J10" s="17">
         <f>AVERAGE(B10:D10,F10:H10)</f>
-        <v>4.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="0"/>
-        <v>0.15053763440860216</v>
+        <v>0.14516129032258066</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J16" s="2"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="K17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B18" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1">
         <f>AVERAGE(B18:D18)</f>
         <v>15</v>
       </c>
       <c r="F18" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" s="17">
         <f>AVERAGE(F18:H18)</f>
@@ -6115,35 +5906,35 @@
         <v>0.45698924731182794</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>13</v>
       </c>
       <c r="C19" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1">
         <v>13</v>
       </c>
       <c r="E19" s="1">
         <f>AVERAGE(B19:D19)</f>
-        <v>13</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="F19" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="17">
         <f>AVERAGE(F19:H19)</f>
-        <v>14.666666666666666</v>
+        <v>14.333333333333334</v>
       </c>
       <c r="J19" s="17">
         <f>AVERAGE(B19:D19,F19:H19)</f>
@@ -6154,25 +5945,25 @@
         <v>0.44623655913978494</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
       </c>
       <c r="E20" s="1">
         <f>AVERAGE(B20:D20)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F20" s="1">
         <v>3</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -6182,7 +5973,7 @@
       </c>
       <c r="I20" s="17">
         <f>AVERAGE(F20:H20)</f>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J20" s="17">
         <f>AVERAGE(B20:D20,F20:H20)</f>
@@ -6193,34 +5984,34 @@
         <v>9.6774193548387094E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B40" s="13">
         <f>E8/$G$2</f>
-        <v>0.44086021505376344</v>
-      </c>
-      <c r="C40" s="18">
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="C40" s="13">
         <f>I8/$G$2</f>
         <v>0.45161290322580644</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <f>E18/$G$3</f>
@@ -6231,9 +6022,9 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B41" s="13">
         <f>E9/$G$2</f>
@@ -6244,39 +6035,57 @@
         <v>0.37634408602150538</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
         <f>E19/$G$3</f>
-        <v>0.32500000000000001</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="G41" s="13">
         <f>I19/$G$3</f>
-        <v>0.36666666666666664</v>
+        <v>0.35833333333333334</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B42" s="13">
         <f>E10/$G$2</f>
-        <v>0.12903225806451613</v>
+        <v>0.11827956989247311</v>
       </c>
       <c r="C42" s="18">
         <f>I10/$G$2</f>
         <v>0.17204301075268816</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F42" s="13">
         <f>E20/$G$3</f>
-        <v>7.4999999999999997E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G42" s="13">
         <f>I20/$G$3</f>
-        <v>7.4999999999999997E-2</v>
+        <v>8.3333333333333343E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="23">
+        <f>B40+B42</f>
+        <v>0.56989247311827951</v>
+      </c>
+      <c r="C44" s="23">
+        <f>C40+C42</f>
+        <v>0.62365591397849462</v>
+      </c>
+      <c r="F44" s="23">
+        <f>F40+F42</f>
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="G44" s="23">
+        <f>G40+G42</f>
+        <v>0.41666666666666674</v>
       </c>
     </row>
   </sheetData>
@@ -6289,64 +6098,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="51.625" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
-    <col min="16" max="16" width="24.125" customWidth="1"/>
+    <col min="10" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="51.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="K1" s="15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1">
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>11</v>
@@ -6358,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
@@ -6366,8 +6175,8 @@
       <c r="G2" s="8">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" s="1">
+        <v>0</v>
       </c>
       <c r="I2" s="8">
         <v>0</v>
@@ -6381,7 +6190,7 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N2" s="8">
         <f>SUM(B2:J4)</f>
@@ -6390,18 +6199,18 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1">
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -6412,14 +6221,14 @@
       <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="16">
         <f t="shared" si="0"/>
@@ -6427,18 +6236,18 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N3" s="8">
         <f>SUM(C2:D4,F2:I4)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1">
+    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -6447,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -6456,9 +6265,9 @@
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="8">
@@ -6475,91 +6284,91 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="21" customHeight="1">
+    <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L5" s="1"/>
       <c r="M5" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N5" s="12">
         <f>N3/N2</f>
-        <v>0.15053763440860216</v>
+        <v>0.11827956989247312</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" customHeight="1">
+    <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1">
+    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N7" s="13">
         <f>SUM(J2:J4)/N2</f>
-        <v>0.41935483870967744</v>
+        <v>0.43010752688172044</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" customHeight="1">
+    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>SUM(D2:D4,G2:G4)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="22">
         <f>(B8+B26)/ (N2+N21)</f>
-        <v>2.8169014084507043E-2</v>
+        <v>1.8779342723004695E-2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N8" s="13">
         <f>SUM(B2:B4)/N2</f>
-        <v>0.37634408602150538</v>
+        <v>0.38709677419354838</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E9" s="22">
         <f>SUM(C2:C4,F2:F4,C21:C23,F21:F23) / (N2+N21)</f>
-        <v>7.5117370892018781E-2</v>
+        <v>6.5727699530516437E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="21">
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="J20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="K20" s="15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="21">
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="8">
         <v>5</v>
@@ -6568,16 +6377,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="8">
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
@@ -6590,22 +6399,22 @@
         <v>40</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N21" s="8">
         <f>SUM(B21:J23)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="21">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1">
         <v>14</v>
       </c>
       <c r="C22" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -6619,8 +6428,8 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="H22" s="1">
+        <v>1</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
@@ -6633,16 +6442,16 @@
         <v>40</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N22" s="8">
         <f>SUM(C21:D23,F21:I23)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="21">
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1">
         <v>13</v>
@@ -6657,19 +6466,19 @@
         <v>2</v>
       </c>
       <c r="F23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="8">
         <v>2</v>
       </c>
       <c r="J23" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K23" s="16">
         <f>SUM(B23:J23)</f>
@@ -6678,35 +6487,35 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="21">
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="M24" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N24" s="12">
         <f>N22/N21</f>
-        <v>0.14166666666666666</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="21">
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f>SUM(D21:D23,G21:G23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N26" s="13">
         <f>SUM(J21:J23)/N21</f>
-        <v>0.47499999999999998</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="21">
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="M27" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N27" s="13">
         <f>SUM(B21:B23)/N21</f>
-        <v>0.33333333333333331</v>
+        <v>0.34166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6718,54 +6527,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="16384" width="17" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="B2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" s="18">
-        <f>4/31</f>
-        <v>0.12903225806451613</v>
+        <f>5/31</f>
+        <v>0.16129032258064516</v>
       </c>
       <c r="C4" s="18">
-        <f>8/31</f>
-        <v>0.25806451612903225</v>
+        <f>6/31</f>
+        <v>0.19354838709677419</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="13">
-        <f>12/40</f>
-        <v>0.3</v>
+        <f>13/40</f>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C5" s="13">
         <f>13/40</f>
@@ -6774,14 +6583,14 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6797,58 +6606,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E26E6D-7A63-0640-A728-10E012F3926A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="19"/>
+    <col min="1" max="1" width="27.6640625" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.95">
+    <row r="1" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.95">
+    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B2" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="19">
         <v>10</v>
       </c>
       <c r="D2" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.95">
+    <row r="3" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B3" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="19">
         <v>1</v>
       </c>
       <c r="D3" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.95">
+    <row r="4" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B4" s="19">
         <v>8</v>
@@ -6860,42 +6669,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21.95">
+    <row r="5" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.95">
+    <row r="10" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21.95">
+    <row r="11" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="19">
         <v>9</v>
       </c>
       <c r="D11" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.95">
+    <row r="12" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" s="19">
         <v>3</v>
@@ -6907,9 +6716,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.95">
+    <row r="13" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B13" s="19">
         <v>9</v>
@@ -6918,9 +6727,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21.95">
+    <row r="14" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>

--- a/dataset/combined_analysis.xlsx
+++ b/dataset/combined_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADEBB11F-349C-3342-AB08-E4B2240DB433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F073FAD-A381-CD43-B59A-AE3E0E13F36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="30240" windowHeight="17300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All RQ" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>ChatGPT has four varying levels of confidence in its responses. When ChatGPT is "highly confident" in its response, we find that its answers or explanations are correct about half the time. On the other hand, when ChatGPT is "confident" in its response, we find that its answers or explanation are twice as likely to be correct than incorrect.</t>
   </si>
@@ -180,18 +180,6 @@
     <t>Percentage of incorrect</t>
   </si>
   <si>
-    <t>separate_1</t>
-  </si>
-  <si>
-    <t>Total asked questions (Separate Context)</t>
-  </si>
-  <si>
-    <t>separate_2</t>
-  </si>
-  <si>
-    <t>separate_3</t>
-  </si>
-  <si>
     <t>Inconsistance Percentage</t>
   </si>
   <si>
@@ -243,6 +231,9 @@
     <t>answers are inconsistent 16.1% and 32.5% of the time in shared and separate context queries.
 For explanation, inconsistency rates are 19.4% and 32.5% in the shared and separate contexts
 shared context queries produce fewer inconsistencies in terms of both answers and explanations. Overall, ChatGPT’s explanations and answers are quite nondeterministic across multiple iterations.</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -358,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -381,12 +372,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,6 +439,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5197,10 +5201,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5514,10 +5514,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5525,10 +5525,10 @@
     </row>
     <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5536,10 +5536,10 @@
     </row>
     <row r="5" spans="1:3" ht="101" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5547,7 +5547,7 @@
     </row>
     <row r="7" spans="1:3" ht="88" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>0</v>
@@ -6096,10 +6096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6158,7 +6158,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8">
         <v>2</v>
@@ -6182,11 +6182,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K2" s="16">
         <f t="shared" ref="K2:K4" si="0">SUM(B2:J2)</f>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="N2" s="8">
         <f>SUM(B2:J4)</f>
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -6204,10 +6204,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -6228,11 +6228,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K3" s="16">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="N3" s="8">
         <f>SUM(C2:D4,F2:I4)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -6250,10 +6250,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6274,27 +6274,113 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <f>SUM(B2:B4)</f>
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:K5" si="1">SUM(C2:C4)</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="N5" s="12">
         <f>N3/N2</f>
-        <v>0.11827956989247312</v>
+        <v>0.10833333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="13">
+        <f>B5/$K$5</f>
+        <v>0.35</v>
+      </c>
+      <c r="C6" s="13">
+        <f t="shared" ref="C6:K6" si="2">C5/$K$5</f>
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="2"/>
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,219 +6390,38 @@
       </c>
       <c r="N7" s="13">
         <f>SUM(J2:J4)/N2</f>
-        <v>0.43010752688172044</v>
+        <v>0.49166666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>SUM(D2:D4,G2:G4)</f>
-        <v>4</v>
-      </c>
-      <c r="C8" s="22">
-        <f>(B8+B26)/ (N2+N21)</f>
-        <v>1.8779342723004695E-2</v>
-      </c>
+      <c r="B8" s="27">
+        <f>SUM(B6,E6,J6)</f>
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="C8" s="22"/>
       <c r="M8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N8" s="13">
         <f>SUM(B2:B4)/N2</f>
-        <v>0.38709677419354838</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E9" s="22">
-        <f>SUM(C2:C4,F2:F4,C21:C23,F21:F23) / (N2+N21)</f>
-        <v>6.5727699530516437E-2</v>
-      </c>
+      <c r="E9" s="22"/>
     </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>6</v>
-      </c>
+    <row r="20" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="M20" s="8"/>
+      <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1">
-        <v>14</v>
-      </c>
-      <c r="C21" s="8">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>18</v>
-      </c>
-      <c r="K21" s="16">
-        <f>SUM(B21:J21)</f>
-        <v>40</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21" s="8">
-        <f>SUM(B21:J23)</f>
-        <v>120</v>
-      </c>
+    <row r="22" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="13"/>
     </row>
-    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1">
-        <v>14</v>
-      </c>
-      <c r="C22" s="8">
-        <v>3</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>19</v>
-      </c>
-      <c r="K22" s="16">
-        <f>SUM(B22:J22)</f>
-        <v>40</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="8">
-        <f>SUM(C21:D23,F21:I23)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1">
-        <v>13</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>21</v>
-      </c>
-      <c r="K23" s="16">
-        <f>SUM(B23:J23)</f>
-        <v>40</v>
-      </c>
+    <row r="23" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="M24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="12">
-        <f>N22/N21</f>
-        <v>0.11666666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <f>SUM(D21:D23,G21:G23)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="13">
-        <f>SUM(J21:J23)/N21</f>
-        <v>0.48333333333333334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="M27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="13">
-        <f>SUM(B21:B23)/N21</f>
-        <v>0.34166666666666667</v>
-      </c>
+      <c r="N23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6527,8 +6432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6539,7 +6444,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="25"/>
       <c r="F2" s="24"/>
@@ -6547,10 +6452,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6558,39 +6463,31 @@
         <v>7</v>
       </c>
       <c r="B4" s="18">
-        <f>5/31</f>
-        <v>0.16129032258064516</v>
+        <f>6/40</f>
+        <v>0.15</v>
       </c>
       <c r="C4" s="18">
-        <f>6/31</f>
-        <v>0.19354838709677419</v>
+        <f>7/40</f>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="13">
-        <f>13/40</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C5" s="13">
-        <f>13/40</f>
-        <v>0.32500000000000001</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6606,7 +6503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E26E6D-7A63-0640-A728-10E012F3926A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -6629,7 +6526,7 @@
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="19">
         <v>8</v>
@@ -6643,7 +6540,7 @@
     </row>
     <row r="3" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="19">
         <v>3</v>
@@ -6657,7 +6554,7 @@
     </row>
     <row r="4" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="19">
         <v>8</v>
@@ -6671,7 +6568,7 @@
     </row>
     <row r="5" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
@@ -6690,7 +6587,7 @@
     </row>
     <row r="11" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B11" s="19">
         <v>9</v>
@@ -6704,7 +6601,7 @@
     </row>
     <row r="12" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="19">
         <v>3</v>
@@ -6718,7 +6615,7 @@
     </row>
     <row r="13" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="19">
         <v>9</v>
@@ -6729,7 +6626,7 @@
     </row>
     <row r="14" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>

--- a/dataset/combined_analysis.xlsx
+++ b/dataset/combined_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F073FAD-A381-CD43-B59A-AE3E0E13F36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54BCA3D-D1E9-1B4E-8C69-6022E9BEDE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="30240" windowHeight="17300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All RQ" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>ChatGPT has four varying levels of confidence in its responses. When ChatGPT is "highly confident" in its response, we find that its answers or explanations are correct about half the time. On the other hand, when ChatGPT is "confident" in its response, we find that its answers or explanation are twice as likely to be correct than incorrect.</t>
   </si>
@@ -180,6 +180,18 @@
     <t>Percentage of incorrect</t>
   </si>
   <si>
+    <t>separate_1</t>
+  </si>
+  <si>
+    <t>Total asked questions (Separate Context)</t>
+  </si>
+  <si>
+    <t>separate_2</t>
+  </si>
+  <si>
+    <t>separate_3</t>
+  </si>
+  <si>
     <t>Inconsistance Percentage</t>
   </si>
   <si>
@@ -233,7 +245,7 @@
 shared context queries produce fewer inconsistencies in terms of both answers and explanations. Overall, ChatGPT’s explanations and answers are quite nondeterministic across multiple iterations.</t>
   </si>
   <si>
-    <t>%</t>
+    <t xml:space="preserve">Sum </t>
   </si>
 </sst>
 </file>
@@ -435,14 +447,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1704,8 +1716,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.3866879563906065E-2"/>
-          <c:y val="9.5091170076159026E-2"/>
+          <c:x val="9.2769646088505492E-2"/>
+          <c:y val="3.9535433070866134E-2"/>
           <c:w val="0.91226624087218788"/>
           <c:h val="0.74517119450647928"/>
         </c:manualLayout>
@@ -1795,7 +1807,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1914,8 +1926,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.3473063966577662E-2"/>
-                  <c:y val="-4.0034679027730619E-17"/>
+                  <c:x val="2.5317829397629974E-2"/>
+                  <c:y val="-1.3102409949302958E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1928,6 +1940,27 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-80D2-9349-82A9-A481808EA327}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0776172844738459E-3"/>
+                  <c:y val="8.7349399662019732E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F50E-264C-8C7A-52906B0E6CCC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1945,7 +1978,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2056,7 +2089,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2085,7 +2118,18 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2101,7 +2145,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2127,10 +2171,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7146844143834381"/>
-          <c:y val="0.18967922136607585"/>
+          <c:x val="0.71468430252195814"/>
+          <c:y val="0.11106476167025808"/>
           <c:w val="0.24458564325268042"/>
-          <c:h val="0.14100703540952081"/>
+          <c:h val="0.10606727554471292"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2146,7 +2190,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2200,10 +2244,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.3939412048520185E-2"/>
-          <c:y val="0.12072837396897715"/>
-          <c:w val="0.9121211759029596"/>
-          <c:h val="0.70234906760868732"/>
+          <c:x val="9.2664324217537328E-2"/>
+          <c:y val="5.4821959755030618E-2"/>
+          <c:w val="0.90733567578246266"/>
+          <c:h val="0.73340183892107824"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2230,19 +2274,20 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3966952026465555E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="-1.2218963831867057E-2"/>
+                  <c:y val="8.7351502445842076E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2252,18 +2297,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-4D25-1940-8F43-4E77E63413B2}"/>
+                  <c16:uniqueId val="{00000002-24DC-0942-9D28-9EB67F2D29D3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.796144403087648E-2"/>
-                  <c:y val="-8.0444933104008947E-17"/>
+                  <c:x val="-1.6291951775822745E-2"/>
+                  <c:y val="-4.3675751222921238E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2273,7 +2319,29 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4D25-1940-8F43-4E77E63413B2}"/>
+                  <c16:uniqueId val="{00000004-24DC-0942-9D28-9EB67F2D29D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6291951775822745E-2"/>
+                  <c:y val="4.3675751222921038E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-24DC-0942-9D28-9EB67F2D29D3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2281,8 +2349,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2291,7 +2359,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2306,6 +2374,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2315,7 +2384,21 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2356,7 +2439,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9CA-6D4E-B676-798F952FD866}"/>
+              <c16:uniqueId val="{00000000-24DC-0942-9D28-9EB67F2D29D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2380,8 +2463,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2389,10 +2472,11 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1955936035287368E-2"/>
-                  <c:y val="8.7759122629899045E-3"/>
+                  <c:x val="1.6291951775822745E-2"/>
+                  <c:y val="-2.0017821396257851E-17"/>
                 </c:manualLayout>
               </c:layout>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2402,28 +2486,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-4D25-1940-8F43-4E77E63413B2}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.997246002205463E-2"/>
-                  <c:y val="-8.0444933104008947E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-4D25-1940-8F43-4E77E63413B2}"/>
+                  <c16:uniqueId val="{00000003-24DC-0942-9D28-9EB67F2D29D3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2431,8 +2494,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2441,7 +2504,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2456,6 +2519,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2465,7 +2529,21 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2506,13 +2584,14 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B9CA-6D4E-B676-798F952FD866}"/>
+              <c16:uniqueId val="{00000001-24DC-0942-9D28-9EB67F2D29D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2520,18 +2599,18 @@
         </c:dLbls>
         <c:gapWidth val="350"/>
         <c:overlap val="-27"/>
-        <c:axId val="249312095"/>
-        <c:axId val="734263631"/>
+        <c:axId val="1850916528"/>
+        <c:axId val="1874545488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="249312095"/>
+        <c:axId val="1850916528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2543,16 +2622,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2567,7 +2646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="734263631"/>
+        <c:crossAx val="1874545488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2575,7 +2654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="734263631"/>
+        <c:axId val="1874545488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,29 +2663,34 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2621,37 +2705,44 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249312095"/>
+        <c:crossAx val="1850916528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72658425641745017"/>
-          <c:y val="0.20005452121870471"/>
-          <c:w val="0.2414598075472624"/>
-          <c:h val="0.13226612712081667"/>
+          <c:x val="0.68844272031978404"/>
+          <c:y val="0.1322230971128609"/>
+          <c:w val="0.26257334585376241"/>
+          <c:h val="0.13559667541557305"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="1"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2672,10 +2763,25 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:ln>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2744,7 +2850,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2873,7 +2979,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2999,7 +3105,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3095,7 +3201,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="-27"/>
         <c:axId val="746029791"/>
         <c:axId val="439011455"/>
@@ -3129,7 +3235,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3188,7 +3294,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3221,8 +3327,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76981007946538338"/>
-          <c:y val="0.19044947851550101"/>
+          <c:x val="0.76981011537780653"/>
+          <c:y val="0.13803841540247722"/>
           <c:w val="0.13232993007235144"/>
           <c:h val="0.17088277017423292"/>
         </c:manualLayout>
@@ -3240,7 +3346,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3348,7 +3454,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3477,7 +3583,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3603,7 +3709,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3696,7 +3802,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="-27"/>
         <c:axId val="566392815"/>
         <c:axId val="1192896543"/>
@@ -3730,7 +3836,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3789,7 +3895,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3807,6 +3913,7 @@
         <c:crossAx val="566392815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3822,8 +3929,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.78392092198849794"/>
-          <c:y val="0.17312036508054793"/>
+          <c:x val="0.78392093400348417"/>
+          <c:y val="0.14691491000731827"/>
           <c:w val="0.13781040338257428"/>
           <c:h val="0.17391694334738128"/>
         </c:manualLayout>
@@ -3841,7 +3948,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3969,6 +4076,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4473,6 +4620,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5059,8 +5709,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>954689</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>166414</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70069</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5087,23 +5737,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1156139</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>153715</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>950309</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>213711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>402933</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171163</xdr:rowOff>
+      <xdr:colOff>827723</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134884</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9400740-B911-5AFC-D28F-BEA62E4BE93E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5135,9 +5785,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>55880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>252815</xdr:rowOff>
+      <xdr:colOff>19304</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5171,9 +5821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>43180</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127931</xdr:rowOff>
+      <xdr:colOff>6604</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5514,10 +6164,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5525,10 +6175,10 @@
     </row>
     <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5536,10 +6186,10 @@
     </row>
     <row r="5" spans="1:3" ht="101" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5547,7 +6197,7 @@
     </row>
     <row r="7" spans="1:3" ht="88" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>0</v>
@@ -5575,8 +6225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5584,7 +6234,8 @@
     <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
@@ -6096,10 +6747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6158,7 +6809,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8">
         <v>2</v>
@@ -6182,11 +6833,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K2" s="16">
         <f t="shared" ref="K2:K4" si="0">SUM(B2:J2)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
@@ -6194,7 +6845,7 @@
       </c>
       <c r="N2" s="8">
         <f>SUM(B2:J4)</f>
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -6204,10 +6855,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -6228,11 +6879,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K3" s="16">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
@@ -6240,7 +6891,7 @@
       </c>
       <c r="N3" s="8">
         <f>SUM(C2:D4,F2:I4)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -6250,10 +6901,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6274,59 +6925,55 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
         <f>SUM(B2:B4)</f>
-        <v>42</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:K5" si="1">SUM(C2:C4)</f>
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:J5" si="1">SUM(C2:C4)</f>
+        <v>4</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="8" t="s">
@@ -6334,52 +6981,45 @@
       </c>
       <c r="N5" s="12">
         <f>N3/N2</f>
-        <v>0.10833333333333334</v>
+        <v>0.11827956989247312</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="13">
-        <f>B5/$K$5</f>
-        <v>0.35</v>
-      </c>
-      <c r="C6" s="13">
-        <f t="shared" ref="C6:K6" si="2">C5/$K$5</f>
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="B6" s="22">
+        <f>B5/SUM($K$2:$K$4)</f>
+        <v>0.38709677419354838</v>
+      </c>
+      <c r="C6" s="22">
+        <f t="shared" ref="C6:J6" si="2">C5/SUM($K$2:$K$4)</f>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="D6" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="22">
         <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-      <c r="F6" s="13">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="F6" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="22">
         <f t="shared" si="2"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="H6" s="13">
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="H6" s="22">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="I6" s="13">
+        <v>2.1505376344086023E-2</v>
+      </c>
+      <c r="I6" s="22">
         <f t="shared" si="2"/>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="J6" s="13">
+        <v>1.0752688172043012E-2</v>
+      </c>
+      <c r="J6" s="22">
         <f t="shared" si="2"/>
-        <v>0.49166666666666664</v>
-      </c>
-      <c r="K6" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.43010752688172044</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -6390,38 +7030,225 @@
       </c>
       <c r="N7" s="13">
         <f>SUM(J2:J4)/N2</f>
-        <v>0.49166666666666664</v>
+        <v>0.43010752688172044</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27">
-        <f>SUM(B6,E6,J6)</f>
-        <v>0.89166666666666661</v>
-      </c>
-      <c r="C8" s="22"/>
+      <c r="B8">
+        <f>SUM(D2:D4,G2:G4)</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="22">
+        <f>(B8+B26)/ (N2+N21)</f>
+        <v>1.8779342723004695E-2</v>
+      </c>
       <c r="M8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N8" s="13">
         <f>SUM(B2:B4)/N2</f>
-        <v>0.35</v>
+        <v>0.38709677419354838</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E9" s="22"/>
+      <c r="E9" s="22">
+        <f>SUM(C2:C4,F2:F4,C21:C23,F21:F23) / (N2+N21)</f>
+        <v>6.5727699530516437E-2</v>
+      </c>
     </row>
-    <row r="20" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="M20" s="8"/>
-      <c r="N20" s="12"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="25">
+        <f>SUM(B6,E6,J6)</f>
+        <v>0.88172043010752688</v>
+      </c>
     </row>
-    <row r="22" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="13"/>
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>18</v>
+      </c>
+      <c r="K21" s="16">
+        <f>SUM(B21:J21)</f>
+        <v>40</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="8">
+        <f>SUM(B21:J23)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>19</v>
+      </c>
+      <c r="K22" s="16">
+        <f>SUM(B22:J22)</f>
+        <v>40</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="8">
+        <f>SUM(C21:D23,F21:I23)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1">
+        <v>13</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>21</v>
+      </c>
+      <c r="K23" s="16">
+        <f>SUM(B23:J23)</f>
+        <v>40</v>
+      </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="13"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="M24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="12">
+        <f>N22/N21</f>
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <f>SUM(D21:D23,G21:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="13">
+        <f>SUM(J21:J23)/N21</f>
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="M27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="13">
+        <f>SUM(B21:B23)/N21</f>
+        <v>0.34166666666666667</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6432,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6443,19 +7270,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6463,31 +7290,39 @@
         <v>7</v>
       </c>
       <c r="B4" s="18">
-        <f>6/40</f>
-        <v>0.15</v>
+        <f>5/31</f>
+        <v>0.16129032258064516</v>
       </c>
       <c r="C4" s="18">
-        <f>7/40</f>
-        <v>0.17499999999999999</v>
+        <f>6/31</f>
+        <v>0.19354838709677419</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13">
+        <f>13/40</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C5" s="13">
+        <f>13/40</f>
+        <v>0.32500000000000001</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6504,7 +7339,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6526,7 +7361,7 @@
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B2" s="19">
         <v>8</v>
@@ -6540,7 +7375,7 @@
     </row>
     <row r="3" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B3" s="19">
         <v>3</v>
@@ -6554,7 +7389,7 @@
     </row>
     <row r="4" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B4" s="19">
         <v>8</v>
@@ -6568,7 +7403,7 @@
     </row>
     <row r="5" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
@@ -6587,7 +7422,7 @@
     </row>
     <row r="11" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" s="19">
         <v>9</v>
@@ -6601,7 +7436,7 @@
     </row>
     <row r="12" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B12" s="19">
         <v>3</v>
@@ -6615,7 +7450,7 @@
     </row>
     <row r="13" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B13" s="19">
         <v>9</v>
@@ -6626,7 +7461,7 @@
     </row>
     <row r="14" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>

--- a/dataset/combined_analysis.xlsx
+++ b/dataset/combined_analysis.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54BCA3D-D1E9-1B4E-8C69-6022E9BEDE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF285E15-5170-7E4A-B681-E25D3DE0AF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All RQ" sheetId="1" r:id="rId1"/>
-    <sheet name="RQ1" sheetId="3" r:id="rId2"/>
-    <sheet name="RQ2" sheetId="4" r:id="rId3"/>
-    <sheet name="RQ3" sheetId="2" r:id="rId4"/>
-    <sheet name="RQ4" sheetId="5" r:id="rId5"/>
+    <sheet name="RQ1" sheetId="1" r:id="rId1"/>
+    <sheet name="RQ2" sheetId="2" r:id="rId2"/>
+    <sheet name="RQ3" sheetId="3" r:id="rId3"/>
+    <sheet name="RQ4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
-  <si>
-    <t>ChatGPT has four varying levels of confidence in its responses. When ChatGPT is "highly confident" in its response, we find that its answers or explanations are correct about half the time. On the other hand, when ChatGPT is "confident" in its response, we find that its answers or explanation are twice as likely to be correct than incorrect.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>ch1</t>
   </si>
@@ -165,13 +161,16 @@
     <t>shared_2</t>
   </si>
   <si>
-    <t>Inconsistent</t>
+    <t>Non Identical</t>
   </si>
   <si>
     <t>shared_3</t>
   </si>
   <si>
-    <t>Percentage of Inconsistency</t>
+    <t xml:space="preserve">Sum </t>
+  </si>
+  <si>
+    <t>Percentage of Non Identical</t>
   </si>
   <si>
     <t>Percentage of correct</t>
@@ -180,18 +179,6 @@
     <t>Percentage of incorrect</t>
   </si>
   <si>
-    <t>separate_1</t>
-  </si>
-  <si>
-    <t>Total asked questions (Separate Context)</t>
-  </si>
-  <si>
-    <t>separate_2</t>
-  </si>
-  <si>
-    <t>separate_3</t>
-  </si>
-  <si>
     <t>Inconsistance Percentage</t>
   </si>
   <si>
@@ -201,10 +188,7 @@
     <t>Explnataion</t>
   </si>
   <si>
-    <t>Inconsistency is higher in separate context</t>
-  </si>
-  <si>
-    <t>ChatGPT can produce non-deterministic over multiple runs. This affects correctness 30% of the time in terms of answer and 32.5% in terms of explanation</t>
+    <t>ChatGPT can produce non-deterministic over multiple runs. This affects correctness 12.5% of the time in terms of answer and 10.0% in terms of explanation</t>
   </si>
   <si>
     <t>Highly confident</t>
@@ -217,35 +201,6 @@
   </si>
   <si>
     <t>Reliable</t>
-  </si>
-  <si>
-    <t>Finding: For shared, 37.5% of the time chatgpt answers the question correctly and 45.2% of the time the explanation is correct. (Independently)
-For separate,  33.3% of the time chatgpt answers the question correctly and 45.2% of the time the explanation is correct. (Independently)
-Shared context is better than separate context and can give a correct answer 37.5% of the time and a correct explanation 45.2% of the time.”</t>
-  </si>
-  <si>
-    <t>Only 1.9% of time chatgpt will give you a response  where (1) the answers are at least partially correct, but the explanations are wrong, or (2) the explanation are at least partially correct but the answers are wrong.</t>
-  </si>
-  <si>
-    <t>RQ2: How often will ChatGPT give correct answers but incorrect explanations, and the other way around?</t>
-  </si>
-  <si>
-    <t>RQ1: How does shared &amp; separate context affect ChatGPT’s answer and explanation correctness?</t>
-  </si>
-  <si>
-    <t>RQ3:How often will ChatGPT’s inconsistent responses affect the scores of answers and explanations?</t>
-  </si>
-  <si>
-    <t>RQ4: How confident is ChatGPT in its correct and
-incorrect responses?</t>
-  </si>
-  <si>
-    <t>answers are inconsistent 16.1% and 32.5% of the time in shared and separate context queries.
-For explanation, inconsistency rates are 19.4% and 32.5% in the shared and separate contexts
-shared context queries produce fewer inconsistencies in terms of both answers and explanations. Overall, ChatGPT’s explanations and answers are quite nondeterministic across multiple iterations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum </t>
   </si>
 </sst>
 </file>
@@ -255,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,12 +289,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -398,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,9 +388,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -451,6 +397,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,32 +580,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>14</c:v>
+                  <c:v>12.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B2E-A042-9F47-207D186DDBC7}"/>
+              <c16:uniqueId val="{00000000-EC64-A542-AF42-17205109567E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -760,32 +710,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>13.333333333333334</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8B2E-A042-9F47-207D186DDBC7}"/>
+              <c16:uniqueId val="{00000001-EC64-A542-AF42-17205109567E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -890,22 +840,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
                   <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
@@ -915,7 +865,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8B2E-A042-9F47-207D186DDBC7}"/>
+              <c16:uniqueId val="{00000002-EC64-A542-AF42-17205109567E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1241,32 +1191,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>13.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42C1-3A41-B267-7C90B4BAD2D4}"/>
+              <c16:uniqueId val="{00000000-8210-954D-8817-0CA1FDEC5767}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1371,7 +1321,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
@@ -1380,23 +1330,23 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.333333333333334</c:v>
+                  <c:v>14.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-42C1-3A41-B267-7C90B4BAD2D4}"/>
+              <c16:uniqueId val="{00000001-8210-954D-8817-0CA1FDEC5767}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1501,22 +1451,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -1526,7 +1476,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-42C1-3A41-B267-7C90B4BAD2D4}"/>
+              <c16:uniqueId val="{00000002-8210-954D-8817-0CA1FDEC5767}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1709,7 +1659,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1717,7 +1667,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.2769646088505492E-2"/>
-          <c:y val="3.9535433070866134E-2"/>
+          <c:y val="3.9535433070866127E-2"/>
           <c:w val="0.91226624087218788"/>
           <c:h val="0.74517119450647928"/>
         </c:manualLayout>
@@ -1751,48 +1701,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.0470717570741844E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-80D2-9349-82A9-A481808EA327}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.1240228658587705E-2"/>
-                  <c:y val="1.0104534190919114E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-80D2-9349-82A9-A481808EA327}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1859,10 +1767,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45161290322580644</c:v>
+                  <c:v>0.39784946236559143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43010752688172044</c:v>
+                  <c:v>0.4838709677419355</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.11827956989247311</c:v>
@@ -1872,7 +1780,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44EB-9E40-8795-A517F164092A}"/>
+              <c16:uniqueId val="{00000000-3627-B446-9AC4-55104F4DDC12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1901,69 +1809,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.2530162797154108E-2"/>
-                  <c:y val="5.0522670954595804E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-80D2-9349-82A9-A481808EA327}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.5317829397629974E-2"/>
-                  <c:y val="-1.3102409949302958E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-80D2-9349-82A9-A481808EA327}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.0776172844738459E-3"/>
-                  <c:y val="8.7349399662019732E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-F50E-264C-8C7A-52906B0E6CCC}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2030,20 +1875,20 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45161290322580644</c:v>
+                  <c:v>0.34408602150537632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37634408602150538</c:v>
+                  <c:v>0.54838709677419351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17204301075268816</c:v>
+                  <c:v>0.10752688172043011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-44EB-9E40-8795-A517F164092A}"/>
+              <c16:uniqueId val="{00000001-3627-B446-9AC4-55104F4DDC12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2126,6 +1971,7 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
@@ -2172,9 +2018,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.71468430252195814"/>
-          <c:y val="0.11106476167025808"/>
-          <c:w val="0.24458564325268042"/>
-          <c:h val="0.10606727554471292"/>
+          <c:y val="0.1110647616702581"/>
+          <c:w val="0.2445856432526804"/>
+          <c:h val="0.1060672755447129"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2210,11 +2056,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2237,7 +2078,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2274,83 +2115,17 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.2218963831867057E-2"/>
-                  <c:y val="8.7351502445842076E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-24DC-0942-9D28-9EB67F2D29D3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.6291951775822745E-2"/>
-                  <c:y val="-4.3675751222921238E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-24DC-0942-9D28-9EB67F2D29D3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.6291951775822745E-2"/>
-                  <c:y val="4.3675751222921038E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-24DC-0942-9D28-9EB67F2D29D3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2359,7 +2134,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2384,21 +2159,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2426,20 +2187,20 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.375</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>0.35833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>8.3333333333333343E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24DC-0942-9D28-9EB67F2D29D3}"/>
+              <c16:uniqueId val="{00000000-8695-FB47-B0F1-AA506DC2C39C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2463,39 +2224,17 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.6291951775822745E-2"/>
-                  <c:y val="-2.0017821396257851E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-24DC-0942-9D28-9EB67F2D29D3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2504,7 +2243,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2529,21 +2268,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2571,20 +2296,20 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35833333333333334</c:v>
+                  <c:v>0.43333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3333333333333343E-2</c:v>
+                  <c:v>0.10833333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-24DC-0942-9D28-9EB67F2D29D3}"/>
+              <c16:uniqueId val="{00000001-8695-FB47-B0F1-AA506DC2C39C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2622,16 +2347,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2669,9 +2394,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -2682,15 +2407,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2709,13 +2434,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -2726,7 +2444,7 @@
           <c:x val="0.68844272031978404"/>
           <c:y val="0.1322230971128609"/>
           <c:w val="0.26257334585376241"/>
-          <c:h val="0.13559667541557305"/>
+          <c:h val="0.13559667541557299"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2734,15 +2452,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2762,26 +2480,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2804,7 +2502,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2831,8 +2529,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2840,8 +2538,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2850,7 +2548,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2875,21 +2573,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2920,7 +2604,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -2936,7 +2620,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C649-C44D-8527-406715BDAC60}"/>
+              <c16:uniqueId val="{00000000-E643-FF4C-A66D-07C8BBD0D27D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2960,8 +2644,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2969,8 +2653,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2979,7 +2663,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3004,21 +2688,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3049,10 +2719,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -3062,7 +2732,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C649-C44D-8527-406715BDAC60}"/>
+              <c16:uniqueId val="{00000001-E643-FF4C-A66D-07C8BBD0D27D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3086,8 +2756,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3095,8 +2765,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3105,7 +2775,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3130,21 +2800,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3175,10 +2831,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -3188,7 +2844,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C649-C44D-8527-406715BDAC60}"/>
+              <c16:uniqueId val="{00000002-E643-FF4C-A66D-07C8BBD0D27D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3226,16 +2882,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3273,9 +2929,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3286,15 +2942,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3313,13 +2969,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3328,9 +2977,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.76981011537780653"/>
-          <c:y val="0.13803841540247722"/>
-          <c:w val="0.13232993007235144"/>
-          <c:h val="0.17088277017423292"/>
+          <c:y val="0.13803841540247719"/>
+          <c:w val="0.13232993007235139"/>
+          <c:h val="0.1708827701742329"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3338,15 +2987,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3366,26 +3015,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3408,7 +3037,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3435,8 +3064,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3444,8 +3073,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3454,7 +3083,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3479,21 +3108,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3524,13 +3139,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3540,7 +3155,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB56-1D45-9621-89A80CC57FF4}"/>
+              <c16:uniqueId val="{00000000-7CF3-994D-95D6-9D732021CCFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3564,8 +3179,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3573,8 +3188,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3583,7 +3198,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3608,21 +3223,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3653,20 +3254,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DB56-1D45-9621-89A80CC57FF4}"/>
+              <c16:uniqueId val="{00000001-7CF3-994D-95D6-9D732021CCFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3690,8 +3291,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3699,8 +3300,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3709,7 +3310,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3734,21 +3335,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3779,9 +3366,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3789,7 +3376,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DB56-1D45-9621-89A80CC57FF4}"/>
+              <c16:uniqueId val="{00000002-7CF3-994D-95D6-9D732021CCFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3827,16 +3414,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3874,9 +3461,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3887,15 +3474,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3915,13 +3502,6 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3930,9 +3510,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.78392093400348417"/>
-          <c:y val="0.14691491000731827"/>
-          <c:w val="0.13781040338257428"/>
-          <c:h val="0.17391694334738128"/>
+          <c:y val="0.14691491000731829"/>
+          <c:w val="0.1378104033825743"/>
+          <c:h val="0.17391694334738131"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3940,15 +3520,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3968,1661 +3548,12 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5645,7 +3576,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5681,7 +3612,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5717,7 +3648,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5750,10 +3681,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9400740-B911-5AFC-D28F-BEA62E4BE93E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5794,7 +3725,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C3F6A1-3D37-832D-9307-7F4AD5A6355A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5830,7 +3761,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FB517E-4DF7-0F3B-8371-50D9AB453B4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6148,85 +4079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.83203125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="121" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="141" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-    </row>
-    <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-    </row>
-    <row r="5" spans="1:3" ht="101" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-    </row>
-    <row r="7" spans="1:3" ht="88" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6241,34 +4097,34 @@
     <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="22.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="25.83203125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="22.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="22.83203125" style="1"/>
+    <col min="12" max="24" width="22.83203125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="22.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <f>4*6</f>
@@ -6294,7 +4150,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
@@ -6319,151 +4175,151 @@
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>14</v>
+      <c r="D8">
+        <v>12</v>
       </c>
       <c r="E8" s="17">
         <f>AVERAGE(B8:D8)</f>
-        <v>14</v>
-      </c>
-      <c r="F8" s="1">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="G8" s="1">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1">
-        <v>17</v>
+      <c r="H8">
+        <v>12</v>
       </c>
       <c r="I8" s="17">
         <f>AVERAGE(F8:H8)</f>
-        <v>14</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="J8" s="17">
         <f>AVERAGE(B8:D8,F8:H8)</f>
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="K8" s="12">
         <f>J8/$G$2</f>
-        <v>0.45161290322580644</v>
+        <v>0.37096774193548387</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
         <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <v>13</v>
       </c>
       <c r="E9" s="17">
         <f>AVERAGE(B9:D9)</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="F9" s="1">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
       </c>
       <c r="I9" s="17">
         <f>AVERAGE(F9:H9)</f>
-        <v>11.666666666666666</v>
+        <v>17</v>
       </c>
       <c r="J9" s="17">
         <f>AVERAGE(B9:D9,F9:H9)</f>
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" ref="K9:K10" si="0">J9/$G$2</f>
-        <v>0.40322580645161288</v>
+        <f>J9/$G$2</f>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
         <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
       </c>
       <c r="E10" s="17">
         <f>AVERAGE(B10:D10)</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="F10" s="1">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
       <c r="I10" s="17">
         <f>AVERAGE(F10:H10)</f>
-        <v>5.333333333333333</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J10" s="17">
         <f>AVERAGE(B10:D10,F10:H10)</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" si="0"/>
-        <v>0.14516129032258066</v>
+        <f>J10/$G$2</f>
+        <v>0.11290322580645161</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6488,218 +4344,218 @@
     <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
       </c>
       <c r="E18" s="1">
         <f>AVERAGE(B18:D18)</f>
-        <v>15</v>
-      </c>
-      <c r="F18" s="1">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
         <v>11</v>
-      </c>
-      <c r="G18" s="1">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1">
-        <v>15</v>
       </c>
       <c r="I18" s="17">
         <f>AVERAGE(F18:H18)</f>
-        <v>13.333333333333334</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="J18" s="17">
         <f>AVERAGE(B18:D18,F18:H18)</f>
-        <v>14.166666666666666</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="K18" s="12">
         <f>J18/$G$2</f>
-        <v>0.45698924731182794</v>
+        <v>0.36559139784946237</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
         <v>14</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>13</v>
       </c>
       <c r="E19" s="1">
         <f>AVERAGE(B19:D19)</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="F19" s="1">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
         <v>17</v>
       </c>
-      <c r="G19" s="1">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1">
-        <v>12</v>
+      <c r="H19">
+        <v>16</v>
       </c>
       <c r="I19" s="17">
         <f>AVERAGE(F19:H19)</f>
-        <v>14.333333333333334</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="J19" s="17">
         <f>AVERAGE(B19:D19,F19:H19)</f>
-        <v>13.833333333333334</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" ref="K19:K20" si="1">J19/$G$2</f>
-        <v>0.44623655913978494</v>
+        <f>J19/$G$2</f>
+        <v>0.510752688172043</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
+        <v>22</v>
+      </c>
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
-        <v>3</v>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
       </c>
       <c r="E20" s="1">
         <f>AVERAGE(B20:D20)</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3</v>
-      </c>
-      <c r="H20" s="1">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
         <v>4</v>
       </c>
       <c r="I20" s="17">
         <f>AVERAGE(F20:H20)</f>
-        <v>3.3333333333333335</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="J20" s="17">
         <f>AVERAGE(B20:D20,F20:H20)</f>
-        <v>3</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" si="1"/>
-        <v>9.6774193548387094E-2</v>
+        <f>J20/$G$2</f>
+        <v>0.12365591397849462</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="13">
         <f>E8/$G$2</f>
-        <v>0.45161290322580644</v>
+        <v>0.39784946236559143</v>
       </c>
       <c r="C40" s="13">
         <f>I8/$G$2</f>
-        <v>0.45161290322580644</v>
+        <v>0.34408602150537632</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40" s="18">
         <f>E18/$G$3</f>
-        <v>0.375</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="G40" s="13">
         <f>I18/$G$3</f>
-        <v>0.33333333333333337</v>
+        <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="13">
         <f>E9/$G$2</f>
-        <v>0.43010752688172044</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C41" s="18">
         <f>I9/$G$2</f>
-        <v>0.37634408602150538</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
         <f>E19/$G$3</f>
-        <v>0.33333333333333337</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="G41" s="13">
         <f>I19/$G$3</f>
-        <v>0.35833333333333334</v>
+        <v>0.43333333333333329</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="13">
         <f>E10/$G$2</f>
@@ -6707,36 +4563,36 @@
       </c>
       <c r="C42" s="18">
         <f>I10/$G$2</f>
-        <v>0.17204301075268816</v>
+        <v>0.10752688172043011</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="13">
         <f>E20/$G$3</f>
-        <v>6.6666666666666666E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="G42" s="13">
         <f>I20/$G$3</f>
-        <v>8.3333333333333343E-2</v>
+        <v>0.10833333333333332</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="23">
+      <c r="B44" s="22">
         <f>B40+B42</f>
-        <v>0.56989247311827951</v>
-      </c>
-      <c r="C44" s="23">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="C44" s="22">
         <f>C40+C42</f>
-        <v>0.62365591397849462</v>
-      </c>
-      <c r="F44" s="23">
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="F44" s="22">
         <f>F40+F42</f>
-        <v>0.44166666666666665</v>
-      </c>
-      <c r="G44" s="23">
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="G44" s="22">
         <f>G40+G42</f>
-        <v>0.41666666666666674</v>
+        <v>0.34166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6745,12 +4601,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q27"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6773,43 +4629,43 @@
     <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8">
         <v>2</v>
@@ -6818,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
@@ -6830,32 +4686,32 @@
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" s="16">
-        <f t="shared" ref="K2:K4" si="0">SUM(B2:J2)</f>
-        <v>31</v>
+        <f>SUM(B2:J2)</f>
+        <v>40</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="8">
         <f>SUM(B2:J4)</f>
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -6864,44 +4720,44 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" s="16">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>SUM(B3:J3)</f>
+        <v>40</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" s="8">
         <f>SUM(C2:D4,F2:I4)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
@@ -6910,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -6925,102 +4781,104 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K4" s="16">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>SUM(B4:J4)</f>
+        <v>40</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:J5" si="1">SUM(C2:C4)</f>
+      <c r="A5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:J5" si="0">SUM(B2:B4)</f>
+        <v>48</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="N5" s="12">
         <f>N3/N2</f>
-        <v>0.11827956989247312</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22">
-        <f>B5/SUM($K$2:$K$4)</f>
-        <v>0.38709677419354838</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" ref="C6:J6" si="2">C5/SUM($K$2:$K$4)</f>
-        <v>4.3010752688172046E-2</v>
-      </c>
-      <c r="D6" s="22">
-        <f t="shared" si="2"/>
+      <c r="B6" s="13">
+        <f t="shared" ref="B6:J6" si="1">B5/SUM($K$2:$K$4)</f>
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="13">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="22">
-        <f t="shared" si="2"/>
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="F6" s="22">
-        <f t="shared" si="2"/>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="22">
-        <f t="shared" si="2"/>
-        <v>4.3010752688172046E-2</v>
-      </c>
-      <c r="H6" s="22">
-        <f t="shared" si="2"/>
-        <v>2.1505376344086023E-2</v>
-      </c>
-      <c r="I6" s="22">
-        <f t="shared" si="2"/>
-        <v>1.0752688172043012E-2</v>
-      </c>
-      <c r="J6" s="22">
-        <f t="shared" si="2"/>
-        <v>0.43010752688172044</v>
-      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.40833333333333333</v>
+      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7030,299 +4888,83 @@
       </c>
       <c r="N7" s="13">
         <f>SUM(J2:J4)/N2</f>
-        <v>0.43010752688172044</v>
+        <v>0.40833333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>SUM(D2:D4,G2:G4)</f>
-        <v>4</v>
-      </c>
-      <c r="C8" s="22">
-        <f>(B8+B26)/ (N2+N21)</f>
-        <v>1.8779342723004695E-2</v>
-      </c>
+      <c r="C8" s="21"/>
       <c r="M8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N8" s="13">
         <f>SUM(B2:B4)/N2</f>
-        <v>0.38709677419354838</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E9" s="22">
-        <f>SUM(C2:C4,F2:F4,C21:C23,F21:F23) / (N2+N21)</f>
-        <v>6.5727699530516437E-2</v>
-      </c>
+      <c r="E9" s="21"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="25">
-        <f>SUM(B6,E6,J6)</f>
-        <v>0.88172043010752688</v>
-      </c>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
     </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1">
-        <v>14</v>
-      </c>
-      <c r="C21" s="8">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>18</v>
-      </c>
-      <c r="K21" s="16">
-        <f>SUM(B21:J21)</f>
-        <v>40</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21" s="8">
-        <f>SUM(B21:J23)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1">
-        <v>14</v>
-      </c>
-      <c r="C22" s="8">
-        <v>3</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>19</v>
-      </c>
-      <c r="K22" s="16">
-        <f>SUM(B22:J22)</f>
-        <v>40</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="8">
-        <f>SUM(C21:D23,F21:I23)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1">
-        <v>13</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>21</v>
-      </c>
-      <c r="K23" s="16">
-        <f>SUM(B23:J23)</f>
-        <v>40</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="M24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="12">
-        <f>N22/N21</f>
-        <v>0.11666666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <f>SUM(D21:D23,G21:G23)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="13">
-        <f>SUM(J21:J23)/N21</f>
-        <v>0.48333333333333334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="M27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="13">
-        <f>SUM(B21:B23)/N21</f>
-        <v>0.34166666666666667</v>
-      </c>
+    <row r="16" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+      <c r="N16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:G8"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="17" style="1"/>
+    <col min="1" max="12" width="17" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="17" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="18">
-        <f>5/31</f>
-        <v>0.16129032258064516</v>
+        <f>5/40</f>
+        <v>0.125</v>
       </c>
       <c r="C4" s="18">
-        <f>6/31</f>
-        <v>0.19354838709677419</v>
+        <f>4/40</f>
+        <v>0.1</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="13">
-        <f>13/40</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C5" s="13">
-        <f>13/40</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>55</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7334,62 +4976,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E26E6D-7A63-0640-A728-10E012F3926A}">
-  <dimension ref="A1:D14"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="19"/>
+    <col min="2" max="11" width="10.83203125" style="19" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="19">
         <v>3</v>
       </c>
       <c r="C3" s="19">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="D3" s="19">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B4" s="19">
         <v>8</v>
@@ -7401,70 +5044,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26">
+        <f>SUM(B2:D5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="11" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B12" s="19">
         <v>3</v>
       </c>
       <c r="C12" s="19">
-        <v>2</v>
-      </c>
-      <c r="D12" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="19">
+        <v>7</v>
+      </c>
+      <c r="C13" s="19">
+        <v>5</v>
+      </c>
+      <c r="D13" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="19">
-        <v>9</v>
-      </c>
-      <c r="C13" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26">
+        <f>SUM(B11:D14)</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/combined_analysis.xlsx
+++ b/dataset/combined_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF285E15-5170-7E4A-B681-E25D3DE0AF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCB6DC-E169-074A-92D0-70F97DA6F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-200" yWindow="11220" windowWidth="30240" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -405,6 +405,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,25 +583,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,25 +713,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>12.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,13 +849,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1321,25 +1324,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.333333333333334</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,25 +1454,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,6 +1704,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.631046913789546E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AB4C-774F-AF09-DFEEEA10F5F5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4465703706843225E-2"/>
+                  <c:y val="5.5555555555555558E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3B5D-1544-BAF3-1A6550D13225}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1752,10 +1797,10 @@
                   <c:v>Correct (EC)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Partially Correct (EPC)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Incorrect (EIC)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Partially Correct (EPC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1767,13 +1812,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.39784946236559143</c:v>
+                  <c:v>0.40740740740740738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4838709677419355</c:v>
+                  <c:v>0.1234567901234568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11827956989247311</c:v>
+                  <c:v>0.46913580246913578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,6 +1854,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6310469137895311E-2"/>
+                  <c:y val="1.1111111111111009E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AB4C-774F-AF09-DFEEEA10F5F5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6310469137895234E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3B5D-1544-BAF3-1A6550D13225}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1860,10 +1947,10 @@
                   <c:v>Correct (EC)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Partially Correct (EPC)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Incorrect (EIC)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Partially Correct (EPC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1875,13 +1962,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.34408602150537632</c:v>
+                  <c:v>0.32098765432098764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54838709677419351</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10752688172043011</c:v>
+                  <c:v>0.5679012345679012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,8 +2104,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71468430252195814"/>
-          <c:y val="0.1110647616702581"/>
+          <c:x val="0.47818250002247514"/>
+          <c:y val="4.4398075240594921E-2"/>
           <c:w val="0.2445856432526804"/>
           <c:h val="0.1060672755447129"/>
         </c:manualLayout>
@@ -2056,6 +2143,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2120,6 +2212,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6291951775822745E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-144B-2543-9CD1-A189A5299B7C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2172,10 +2286,10 @@
                   <c:v>Correct (AC)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Partially Correct (APC)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Incorrect (AIC)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Partially Correct (APC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2187,13 +2301,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>0.49382716049382719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35833333333333334</c:v>
+                  <c:v>6.1728395061728399E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3333333333333343E-2</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,6 +2343,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6291951775822745E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-144B-2543-9CD1-A189A5299B7C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2281,10 +2417,10 @@
                   <c:v>Correct (AC)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Partially Correct (APC)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Incorrect (AIC)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Partially Correct (APC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2296,13 +2432,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.23333333333333334</c:v>
+                  <c:v>0.30107526881720431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43333333333333329</c:v>
+                  <c:v>6.4516129032258063E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10833333333333332</c:v>
+                  <c:v>0.5053763440860215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,8 +2577,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68844272031978404"/>
-          <c:y val="0.1322230971128609"/>
+          <c:x val="0.4481364316263986"/>
+          <c:y val="6.5556430446194233E-2"/>
           <c:w val="0.26257334585376241"/>
           <c:h val="0.13559667541557299"/>
         </c:manualLayout>
@@ -2480,6 +2616,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2604,13 +2745,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -2633,7 +2774,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EIC</c:v>
+                  <c:v>EPC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2719,13 +2860,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,7 +2886,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EPC</c:v>
+                  <c:v>EIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3139,13 +3280,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3165,6 +3306,114 @@
           <c:tx>
             <c:strRef>
               <c:f>'RQ4'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RQ4'!$A$11:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Highly confident</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Very confident</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Confident</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Reliable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RQ4'!$C$11:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CF3-994D-95D6-9D732021CCFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RQ4'!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3249,127 +3498,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RQ4'!$C$11:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7CF3-994D-95D6-9D732021CCFE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RQ4'!$D$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>APC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RQ4'!$A$11:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Highly confident</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Very confident</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Confident</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reliable</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'RQ4'!$D$11:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4081,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4127,8 +4267,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <f>4*6</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4145,7 +4284,7 @@
       </c>
       <c r="G2" s="1">
         <f>SUM(B2:F2)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4153,23 +4292,23 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1">
         <f>SUM(B3:F3)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4210,38 +4349,38 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="17">
         <f>AVERAGE(B8:D8)</f>
-        <v>12.333333333333334</v>
+        <v>11</v>
       </c>
       <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
         <v>9</v>
       </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
       <c r="H8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I8" s="17">
         <f>AVERAGE(F8:H8)</f>
-        <v>10.666666666666666</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="J8" s="17">
         <f>AVERAGE(B8:D8,F8:H8)</f>
-        <v>11.5</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="K8" s="12">
         <f>J8/$G$2</f>
-        <v>0.37096774193548387</v>
+        <v>0.36419753086419754</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4249,38 +4388,38 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="17">
         <f>AVERAGE(B9:D9)</f>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
         <v>15</v>
       </c>
-      <c r="F9">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>17</v>
-      </c>
       <c r="H9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" s="17">
         <f>AVERAGE(F9:H9)</f>
-        <v>17</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="J9" s="17">
         <f>AVERAGE(B9:D9,F9:H9)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K9" s="12">
         <f>J9/$G$2</f>
-        <v>0.5161290322580645</v>
+        <v>0.51851851851851849</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4294,14 +4433,14 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="17">
         <f>AVERAGE(B10:D10)</f>
-        <v>3.6666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4311,15 +4450,15 @@
       </c>
       <c r="I10" s="17">
         <f>AVERAGE(F10:H10)</f>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="J10" s="17">
         <f>AVERAGE(B10:D10,F10:H10)</f>
-        <v>3.5</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="K10" s="12">
         <f>J10/$G$2</f>
-        <v>0.11290322580645161</v>
+        <v>0.11728395061728394</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4410,7 +4549,7 @@
       </c>
       <c r="K18" s="12">
         <f>J18/$G$2</f>
-        <v>0.36559139784946237</v>
+        <v>0.41975308641975312</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4418,38 +4557,38 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
         <f>AVERAGE(B19:D19)</f>
-        <v>14.333333333333334</v>
+        <v>12</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" s="17">
         <f>AVERAGE(F19:H19)</f>
-        <v>17.333333333333332</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="J19" s="17">
         <f>AVERAGE(B19:D19,F19:H19)</f>
-        <v>15.833333333333334</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="K19" s="12">
         <f>J19/$G$2</f>
-        <v>0.510752688172043</v>
+        <v>0.51234567901234573</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4457,38 +4596,38 @@
         <v>22</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
       <c r="D20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <f>AVERAGE(B20:D20)</f>
-        <v>3.3333333333333335</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" s="17">
         <f>AVERAGE(F20:H20)</f>
-        <v>4.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="J20" s="17">
         <f>AVERAGE(B20:D20,F20:H20)</f>
-        <v>3.8333333333333335</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="K20" s="12">
         <f>J20/$G$2</f>
-        <v>0.12365591397849462</v>
+        <v>6.7901234567901231E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4509,90 +4648,90 @@
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="18">
         <f>E8/$G$2</f>
-        <v>0.39784946236559143</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="C40" s="13">
         <f>I8/$G$2</f>
-        <v>0.34408602150537632</v>
+        <v>0.32098765432098764</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="18">
-        <f>E18/$G$3</f>
-        <v>0.33333333333333337</v>
+        <f>E18/$G$2</f>
+        <v>0.49382716049382719</v>
       </c>
       <c r="G40" s="13">
         <f>I18/$G$3</f>
-        <v>0.23333333333333334</v>
+        <v>0.30107526881720431</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="13">
-        <f>E9/$G$2</f>
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="C41" s="18">
-        <f>I9/$G$2</f>
-        <v>0.54838709677419351</v>
+        <v>27</v>
+      </c>
+      <c r="B41" s="18">
+        <f>E10/$G$2</f>
+        <v>0.1234567901234568</v>
+      </c>
+      <c r="C41" s="13">
+        <f>I10/$G$2</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
-        <f>E19/$G$3</f>
-        <v>0.35833333333333334</v>
+        <f>E20/$G$2</f>
+        <v>6.1728395061728399E-2</v>
       </c>
       <c r="G41" s="13">
-        <f>I19/$G$3</f>
-        <v>0.43333333333333329</v>
+        <f>I20/$G$3</f>
+        <v>6.4516129032258063E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" s="13">
-        <f>E10/$G$2</f>
-        <v>0.11827956989247311</v>
+        <f>E9/$G$2</f>
+        <v>0.46913580246913578</v>
       </c>
       <c r="C42" s="18">
-        <f>I10/$G$2</f>
-        <v>0.10752688172043011</v>
+        <f>I9/$G$2</f>
+        <v>0.5679012345679012</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F42" s="13">
-        <f>E20/$G$3</f>
-        <v>8.3333333333333343E-2</v>
-      </c>
-      <c r="G42" s="13">
-        <f>I20/$G$3</f>
-        <v>0.10833333333333332</v>
+        <f>E19/$G$2</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G42" s="18">
+        <f>I19/$G$3</f>
+        <v>0.5053763440860215</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="22">
         <f>B40+B42</f>
-        <v>0.5161290322580645</v>
+        <v>0.87654320987654311</v>
       </c>
       <c r="C44" s="22">
         <f>C40+C42</f>
-        <v>0.45161290322580644</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F44" s="22">
         <f>F40+F42</f>
-        <v>0.41666666666666674</v>
+        <v>0.93827160493827155</v>
       </c>
       <c r="G44" s="22">
         <f>G40+G42</f>
-        <v>0.34166666666666667</v>
+        <v>0.80645161290322576</v>
       </c>
     </row>
   </sheetData>
@@ -4605,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4665,7 +4804,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8">
         <v>2</v>
@@ -4686,14 +4825,14 @@
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="16">
         <f>SUM(B2:J2)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
@@ -4701,7 +4840,7 @@
       </c>
       <c r="N2" s="8">
         <f>SUM(B2:J4)</f>
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -4711,7 +4850,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -4720,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
@@ -4732,14 +4871,14 @@
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="16">
         <f>SUM(B3:J3)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
@@ -4747,7 +4886,7 @@
       </c>
       <c r="N3" s="8">
         <f>SUM(C2:D4,F2:I4)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -4757,7 +4896,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
@@ -4766,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -4778,14 +4917,14 @@
         <v>1</v>
       </c>
       <c r="I4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="16">
         <f>SUM(B4:J4)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -4797,7 +4936,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:J5" si="0">SUM(B2:B4)</f>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -4809,7 +4948,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
@@ -4825,11 +4964,11 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4838,17 +4977,17 @@
       </c>
       <c r="N5" s="12">
         <f>N3/N2</f>
-        <v>0.125</v>
+        <v>0.11827956989247312</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <f t="shared" ref="B6:J6" si="1">B5/SUM($K$2:$K$4)</f>
-        <v>0.4</v>
+        <v>0.34408602150537637</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
+        <v>4.3010752688172046E-2</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="1"/>
@@ -4856,7 +4995,7 @@
       </c>
       <c r="E6" s="13">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="1"/>
@@ -4864,19 +5003,19 @@
       </c>
       <c r="G6" s="13">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="1"/>
-        <v>8.3333333333333332E-3</v>
+        <v>1.0752688172043012E-2</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="1"/>
-        <v>0.40833333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4888,7 +5027,7 @@
       </c>
       <c r="N7" s="13">
         <f>SUM(J2:J4)/N2</f>
-        <v>0.40833333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4898,13 +5037,21 @@
       </c>
       <c r="N8" s="13">
         <f>SUM(B2:B4)/N2</f>
-        <v>0.4</v>
+        <v>0.34408602150537637</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C9" s="25">
+        <f>SUM(B6,E6,J6)</f>
+        <v>0.88172043010752699</v>
+      </c>
       <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F10" s="25">
+        <f>SUM(B6:J6)</f>
+        <v>1</v>
+      </c>
       <c r="N10" s="24"/>
       <c r="O10" s="25"/>
     </row>
@@ -4921,7 +5068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4952,12 +5099,12 @@
         <v>6</v>
       </c>
       <c r="B4" s="18">
-        <f>5/40</f>
-        <v>0.125</v>
+        <f>3/31</f>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="C4" s="18">
-        <f>4/40</f>
-        <v>0.1</v>
+        <f>2/31</f>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -4978,10 +5125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4991,32 +5138,32 @@
     <col min="12" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
@@ -5030,21 +5177,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>54</v>
       </c>
@@ -5052,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -5060,60 +5207,58 @@
       <c r="C6" s="26"/>
       <c r="D6" s="26">
         <f>SUM(B2:D5)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="19">
+        <v>7</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
         <v>8</v>
       </c>
-      <c r="C11" s="19">
-        <v>11</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="19">
         <v>3</v>
       </c>
-      <c r="C12" s="19">
+      <c r="D12" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="19">
-        <v>7</v>
-      </c>
-      <c r="C13" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>54</v>
       </c>
@@ -5121,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>5</v>
       </c>
@@ -5129,7 +5274,7 @@
       <c r="C15" s="26"/>
       <c r="D15" s="26">
         <f>SUM(B11:D14)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/combined_analysis.xlsx
+++ b/dataset/combined_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCB6DC-E169-074A-92D0-70F97DA6F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F450260D-5A61-6445-A6FB-D12BCBABA658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="11220" windowWidth="30240" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -405,9 +405,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2432,13 +2429,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.30107526881720431</c:v>
+                  <c:v>0.34567901234567905</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4516129032258063E-2</c:v>
+                  <c:v>7.407407407407407E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5053763440860215</c:v>
+                  <c:v>0.58024691358024694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4221,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4664,8 +4661,8 @@
         <v>0.49382716049382719</v>
       </c>
       <c r="G40" s="13">
-        <f>I18/$G$3</f>
-        <v>0.30107526881720431</v>
+        <f>I18/$G$2</f>
+        <v>0.34567901234567905</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4688,32 +4685,32 @@
         <v>6.1728395061728399E-2</v>
       </c>
       <c r="G41" s="13">
-        <f>I20/$G$3</f>
-        <v>6.4516129032258063E-2</v>
+        <f>I20/$G$2</f>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="18">
         <f>E9/$G$2</f>
         <v>0.46913580246913578</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="13">
         <f>I9/$G$2</f>
         <v>0.5679012345679012</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="18">
         <f>E19/$G$2</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G42" s="18">
-        <f>I19/$G$3</f>
-        <v>0.5053763440860215</v>
+      <c r="G42" s="13">
+        <f>I19/$G$2</f>
+        <v>0.58024691358024694</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4731,7 +4728,7 @@
       </c>
       <c r="G44" s="22">
         <f>G40+G42</f>
-        <v>0.80645161290322576</v>
+        <v>0.92592592592592604</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5125,7 +5122,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
@@ -5138,7 +5135,7 @@
     <col min="12" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
@@ -5149,7 +5146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>51</v>
       </c>
@@ -5163,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
@@ -5177,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>53</v>
       </c>
@@ -5191,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>54</v>
       </c>
@@ -5199,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -5210,7 +5207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
@@ -5220,9 +5217,8 @@
       <c r="D10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>51</v>
       </c>
@@ -5236,7 +5232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>52</v>
       </c>
@@ -5247,7 +5243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>53</v>
       </c>
@@ -5258,7 +5254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>54</v>
       </c>
@@ -5266,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>5</v>
       </c>

--- a/dataset/combined_analysis.xlsx
+++ b/dataset/combined_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F450260D-5A61-6445-A6FB-D12BCBABA658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE6E7D-585D-4D46-A951-0ED3BF7379B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
@@ -1726,8 +1726,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4465703706843225E-2"/>
-                  <c:y val="5.5555555555555558E-3"/>
+                  <c:x val="-1.6310469137895384E-2"/>
+                  <c:y val="-5.5555555555555558E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1759,10 +1759,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1852,6 +1849,27 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6310469137895384E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9873-1B41-A943-169ED82D115B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
@@ -1876,7 +1894,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6310469137895234E-2"/>
+                  <c:x val="8.1552345689476918E-3"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
@@ -1909,10 +1927,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2210,6 +2225,28 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1459758879114472E-3"/>
+                  <c:y val="-1.6666666666666666E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-EC9F-B043-AA50-BCD62C149CF3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
@@ -2247,10 +2284,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2378,10 +2412,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2688,9 +2719,120 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RQ4'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Highly confident</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Very confident</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Confident</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Reliable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RQ4'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E643-FF4C-A66D-07C8BBD0D27D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RQ4'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2737,41 +2879,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RQ4'!$B$2:$B$5</c:f>
+              <c:f>'RQ4'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E643-FF4C-A66D-07C8BBD0D27D}"/>
+              <c16:uniqueId val="{00000001-E643-FF4C-A66D-07C8BBD0D27D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RQ4'!$C$1</c:f>
+              <c:f>'RQ4'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EPC</c:v>
+                  <c:v>EIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2803,10 +2945,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2852,7 +2991,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RQ4'!$C$2:$C$5</c:f>
+              <c:f>'RQ4'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2865,117 +3004,8 @@
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E643-FF4C-A66D-07C8BBD0D27D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RQ4'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EIC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RQ4'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Highly confident</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Very confident</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Confident</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Reliable</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RQ4'!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,6 +3183,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3223,10 +3258,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3340,9 +3372,8 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3396,6 +3427,15 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3446,10 +3486,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3507,6 +3544,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,6 +3725,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4218,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4742,7 +4787,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5125,7 +5170,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5154,10 +5199,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
         <v>10</v>
-      </c>
-      <c r="D2" s="19">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -5168,10 +5213,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
         <v>2</v>
-      </c>
-      <c r="D3" s="19">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -5194,6 +5239,12 @@
       </c>
       <c r="B5" s="19">
         <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -5239,6 +5290,9 @@
       <c r="B12" s="19">
         <v>3</v>
       </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
       <c r="D12" s="19">
         <v>3</v>
       </c>
@@ -5250,6 +5304,9 @@
       <c r="B13" s="19">
         <v>6</v>
       </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
       <c r="D13" s="19">
         <v>2</v>
       </c>
@@ -5260,6 +5317,12 @@
       </c>
       <c r="B14" s="19">
         <v>1</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">

--- a/dataset/combined_analysis.xlsx
+++ b/dataset/combined_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE6E7D-585D-4D46-A951-0ED3BF7379B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E022369-73A5-E84C-9B36-13A8D2C62B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
@@ -2119,7 +2119,7 @@
           <c:x val="0.47818250002247514"/>
           <c:y val="4.4398075240594921E-2"/>
           <c:w val="0.2445856432526804"/>
-          <c:h val="0.1060672755447129"/>
+          <c:h val="0.16559128025663458"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3822,8 +3822,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>954689</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>70069</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>229826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3858,8 +3858,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>827723</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>134884</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3899,8 +3899,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19304</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3935,8 +3935,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>6604</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>197273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4263,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5169,8 +5169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>

--- a/dataset/combined_analysis.xlsx
+++ b/dataset/combined_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E022369-73A5-E84C-9B36-13A8D2C62B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF323AE-607A-454A-989A-6850D74B8BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1667,7 +1667,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.2769646088505492E-2"/>
-          <c:y val="3.9535433070866127E-2"/>
+          <c:y val="7.2604466108403112E-2"/>
           <c:w val="0.91226624087218788"/>
           <c:h val="0.74517119450647928"/>
         </c:manualLayout>
@@ -1706,7 +1706,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.631046913789546E-2"/>
-                  <c:y val="0"/>
+                  <c:y val="1.984126984126984E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1894,8 +1894,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.1552345689476918E-3"/>
-                  <c:y val="0"/>
+                  <c:x val="0"/>
+                  <c:y val="-6.6137566137566134E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2116,10 +2116,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.47818250002247514"/>
-          <c:y val="4.4398075240594921E-2"/>
+          <c:x val="0.46594964816905354"/>
+          <c:y val="7.7466879140107484E-2"/>
           <c:w val="0.2445856432526804"/>
-          <c:h val="0.16559128025663458"/>
+          <c:h val="0.1259087405740949"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2190,7 +2190,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.2664324217537328E-2"/>
-          <c:y val="5.4821959755030618E-2"/>
+          <c:y val="8.7890576177977756E-2"/>
           <c:w val="0.90733567578246266"/>
           <c:h val="0.73340183892107824"/>
         </c:manualLayout>
@@ -2250,8 +2250,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6291951775822745E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="-1.6291951775822894E-2"/>
+                  <c:y val="-3.968253968253968E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -2375,11 +2375,33 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2218963831867021E-2"/>
+                  <c:y val="3.3068783068783067E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A4F4-264E-A32B-3DC414CB8D47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6291951775822745E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="4.0729879439556863E-3"/>
+                  <c:y val="-1.5156350485738086E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -2605,10 +2627,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.4481364316263986"/>
-          <c:y val="6.5556430446194233E-2"/>
+          <c:x val="0.49293929900991112"/>
+          <c:y val="8.5397658626005082E-2"/>
           <c:w val="0.26257334585376241"/>
-          <c:h val="0.13559667541557299"/>
+          <c:h val="0.11575532225138524"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2703,6 +2725,72 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8617920016641144E-17"/>
+                  <c:y val="2.6031671525399525E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0004-2149-85CB-1F84EE3FC5C9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="2.6127660321316158E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0004-2149-85CB-1F84EE3FC5C9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.9523753644049686E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0004-2149-85CB-1F84EE3FC5C9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2805,16 +2893,92 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.9523753644049686E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0004-2149-85CB-1F84EE3FC5C9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.9523753644049686E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0004-2149-85CB-1F84EE3FC5C9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.4471680066564575E-17"/>
+                  <c:y val="1.9523753644049686E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0004-2149-85CB-1F84EE3FC5C9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2929,6 +3093,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.9523753644049686E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0004-2149-85CB-1F84EE3FC5C9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3144,10 +3330,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76981011537780653"/>
-          <c:y val="0.13803841540247719"/>
-          <c:w val="0.13232993007235139"/>
-          <c:h val="0.1708827701742329"/>
+          <c:x val="0.73717464558680679"/>
+          <c:y val="0.13144821204579341"/>
+          <c:w val="0.16496540514843344"/>
+          <c:h val="0.20345775378355335"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3163,7 +3349,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3242,6 +3428,72 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8617920016641144E-17"/>
+                  <c:y val="1.315147024635189E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-60D0-F448-BCDE-4E7F76E47329}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.315147024635189E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-60D0-F448-BCDE-4E7F76E47329}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.315147024635189E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-60D0-F448-BCDE-4E7F76E47329}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3344,18 +3596,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.315147024635189E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-60D0-F448-BCDE-4E7F76E47329}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3470,6 +3754,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.315147024635189E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-60D0-F448-BCDE-4E7F76E47329}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3686,10 +3992,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.78392093400348417"/>
-          <c:y val="0.14691491000731829"/>
-          <c:w val="0.1378104033825743"/>
-          <c:h val="0.17391694334738131"/>
+          <c:x val="0.74312677910082936"/>
+          <c:y val="0.1600297588701467"/>
+          <c:w val="0.17860483492763027"/>
+          <c:h val="0.21971997887605138"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3705,7 +4011,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3814,16 +4120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>178677</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>148896</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>336333</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>954689</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>770759</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>229826</xdr:rowOff>
+      <xdr:rowOff>2102</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3853,13 +4159,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>950309</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>213711</xdr:rowOff>
+      <xdr:rowOff>178676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>827723</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>31882</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>259606</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3891,16 +4197,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366805</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>226358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19304</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>265205</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>20469</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3927,16 +4233,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>490818</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6604</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>197273</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389218</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4263,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4778,6 +5084,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5103,6 +5410,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5162,6 +5470,7 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5169,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5338,6 +5647,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>